--- a/课表.xlsx
+++ b/课表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helloxzk\Documents\GitHub\courseReminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D007DF2B-53D1-49B6-86D9-633ED5FAD58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4805F-1936-4010-B1DF-49749AAF28C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{EA882DC7-9950-49FC-BBBA-4764F7FBF342}"/>
+    <workbookView xWindow="4176" yWindow="2880" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EA882DC7-9950-49FC-BBBA-4764F7FBF342}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机21-3" sheetId="2" r:id="rId1"/>
@@ -26,36 +26,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
-  <si>
-    <t>高等数学 朱丽娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>大学语文 李晨曦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C语言程序设计 李遥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学英语（1） 闫晓慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学生心理健康 和梦雪</t>
-  </si>
-  <si>
-    <t>大学生心理健康 和梦雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思想道德与法治 杨娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机应用基础 张倩（信校）</t>
+    <t>学习通签到 钉钉上课 高等数学 朱丽娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到 钉钉上课 大学英语（1） 闫晓慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知到上课 C语言程序设计 李遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">知到上课 C语言程序设计 李遥 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学习通签到 知到上课 思想道德与法治 杨娟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知到上课  C语言程序设计 李遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到 腾讯会议上课 高等数学 朱丽娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到 腾讯会议上课 大学英语（1） 闫晓慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到上课 大学生心理健康 和梦雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到 腾讯会议上课 思想道德与法治 杨娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到 腾讯会议上课 计算机应用基础 李强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到上课  大学生心理健康 和梦雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,15 +123,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,21 +446,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB3BE7A-676C-4569-BEEC-0B62ED6BA093}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -459,25 +477,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -487,25 +505,25 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,23 +533,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -559,6 +577,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -566,21 +585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FEBB9D-9B3C-4A38-B38F-A532E8C60900}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -597,53 +616,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,23 +672,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -680,12 +699,7 @@
       <c r="F7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+  <mergeCells count="15">
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -695,8 +709,15 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/课表.xlsx
+++ b/课表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helloxzk\Documents\GitHub\courseReminder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4805F-1936-4010-B1DF-49749AAF28C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7684E8-515D-4776-B777-736A83645583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="2880" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EA882DC7-9950-49FC-BBBA-4764F7FBF342}"/>
+    <workbookView xWindow="2436" yWindow="2052" windowWidth="17280" windowHeight="8880" xr2:uid="{EA882DC7-9950-49FC-BBBA-4764F7FBF342}"/>
   </bookViews>
   <sheets>
     <sheet name="计算机21-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>大学语文 李晨曦</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习通签到 腾讯会议上课 高等数学 朱丽娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习通签到 腾讯会议上课 大学英语（1） 闫晓慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习通签到上课 大学生心理健康 和梦雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +69,10 @@
   </si>
   <si>
     <t>学习通签到上课  大学生心理健康 和梦雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通签到上课 计算机应用基础 张倩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,12 +119,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB3BE7A-676C-4569-BEEC-0B62ED6BA093}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,13 +482,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -546,7 +545,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,6 +559,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -568,12 +573,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FEBB9D-9B3C-4A38-B38F-A532E8C60900}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,13 +621,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -640,7 +639,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -650,13 +649,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -677,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -699,7 +698,7 @@
       <c r="F7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -709,7 +708,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
